--- a/Movie Dataset Analysis.xlsx
+++ b/Movie Dataset Analysis.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\Movies Sales Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MKOPA\OneDrive - M-KOPA Global\Documents\Personals\DATA SCIENCE\Data cleaning&amp; analysis\Movie data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E90421-36CE-4846-BF51-4E0BDBF6CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AEDAA-2EAD-4A07-B71C-B9237D1A21E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24D39405-1A2E-4110-AFA3-BEC10B9E0557}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24D39405-1A2E-4110-AFA3-BEC10B9E0557}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Raw Data" sheetId="1" r:id="rId1"/>
@@ -22,29 +22,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main Raw Data'!$A$4:$P$20</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Main Raw Data'!$K$4</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Main Raw Data'!$K$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Main Raw Data'!$K$5:$K$20</definedName>
     <definedName name="Slicer_Above_or_Below_Average">#N/A</definedName>
     <definedName name="Slicer_Distributor">#N/A</definedName>
     <definedName name="Slicer_GENRE">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -62,12 +44,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="73">
   <si>
     <t>MOVIE</t>
   </si>
@@ -284,14 +277,17 @@
   <si>
     <t>Average Revenue per Month</t>
   </si>
+  <si>
+    <t>This is my project</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -798,18 +794,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -820,13 +815,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -838,13 +833,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -858,7 +849,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -870,34 +861,88 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,150 +999,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1120,64 +1033,64 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,7 +1125,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable12</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable12</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1284,7 +1197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1335,7 +1248,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1394,7 +1307,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1463,7 +1376,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="t"/>
@@ -1550,7 +1463,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1725,7 +1638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NG"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1769028703"/>
@@ -1767,7 +1680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1799,7 +1712,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1839,7 +1752,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable13</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable13</c:name>
     <c:fmtId val="10"/>
   </c:pivotSource>
   <c:chart>
@@ -1895,7 +1808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1943,7 +1856,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1999,7 +1912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2055,7 +1968,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -2128,7 +2041,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2275,7 +2188,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NG"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1670333247"/>
@@ -2352,7 +2265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2391,7 +2304,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable15</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable15</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -2447,7 +2360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2502,7 +2415,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2565,7 +2478,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2689,7 +2602,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -2935,7 +2848,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3047,7 +2960,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3081,7 +2994,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3121,7 +3034,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable22</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable22</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -3177,7 +3090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3225,7 +3138,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3281,7 +3194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3337,7 +3250,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -3410,7 +3323,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3557,7 +3470,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NG"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1769025375"/>
@@ -3637,7 +3550,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3676,7 +3589,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable23</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable23</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -3732,7 +3645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3780,7 +3693,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3836,7 +3749,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3894,7 +3807,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -3969,7 +3882,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4116,7 +4029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NG"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1523469119"/>
@@ -4196,7 +4109,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4235,7 +4148,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable24</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable24</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -4291,7 +4204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4339,7 +4252,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4395,7 +4308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4454,7 +4367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4593,7 +4506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NG"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1769622943"/>
@@ -4673,7 +4586,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4712,7 +4625,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Copy of Visualisation.xlsx]Pivot Charts!PivotTable25</c:name>
+    <c:name>[Movie Dataset Analysis.xlsx]Pivot Charts!PivotTable25</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -4768,7 +4681,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4816,7 +4729,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4872,7 +4785,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4928,7 +4841,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4984,7 +4897,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5037,7 +4950,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -5095,7 +5008,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NG"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -5165,7 +5078,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5367,7 +5280,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-NG"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5567,7 +5480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NG"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1956637600"/>
@@ -5641,7 +5554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5678,7 +5591,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NG"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5709,7 +5622,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5720,7 +5633,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5BA9DDA1-2F0B-4EDD-8220-197A13BD9868}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v> Totals </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10703,7 +10616,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-NG" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -10761,34 +10674,34 @@
         <s v="Drama"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jul-21" numFmtId="164">
+    <cacheField name="Jul-21" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="908851"/>
     </cacheField>
-    <cacheField name="Aug-21" numFmtId="164">
+    <cacheField name="Aug-21" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="953741"/>
     </cacheField>
-    <cacheField name="Sep-21" numFmtId="164">
+    <cacheField name="Sep-21" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="924366"/>
     </cacheField>
-    <cacheField name="Oct-21" numFmtId="164">
+    <cacheField name="Oct-21" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="907576"/>
     </cacheField>
-    <cacheField name="Nov-21" numFmtId="164">
+    <cacheField name="Nov-21" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="945771"/>
     </cacheField>
-    <cacheField name="Dec-21" numFmtId="164">
+    <cacheField name="Dec-21" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="1928656"/>
     </cacheField>
-    <cacheField name="Jan-22" numFmtId="164">
+    <cacheField name="Jan-22" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="1023031"/>
     </cacheField>
-    <cacheField name="Totals" numFmtId="164">
+    <cacheField name="Totals" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8722" maxValue="7591992"/>
     </cacheField>
-    <cacheField name="Average" numFmtId="164">
+    <cacheField name="Average" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1246" maxValue="1084570.2857142857"/>
     </cacheField>
-    <cacheField name="Min" numFmtId="164">
+    <cacheField name="Min" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="907576" count="10">
         <n v="907576"/>
         <n v="516416"/>
@@ -10802,7 +10715,7 @@
         <n v="1291"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Max" numFmtId="164">
+    <cacheField name="Max" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1246" maxValue="1928656"/>
     </cacheField>
     <cacheField name="MoM" numFmtId="9">
@@ -11117,433 +11030,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7CF7399-3C6E-4FAB-ADF9-7114B9DA5C35}" name="PivotTable22" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="E7:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6FDEBAE-5C5D-48FD-BFD8-F12ECFAB0B02}" name="PivotTable20" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="K24" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="7">
-    <dataField name="Average of Jul-21" fld="3" subtotal="average" baseField="0" baseItem="9"/>
-    <dataField name="Average of Aug-21" fld="4" subtotal="average" baseField="0" baseItem="9"/>
-    <dataField name="Average of Sep-21" fld="5" subtotal="average" baseField="0" baseItem="9"/>
-    <dataField name="Average of Oct-21" fld="6" subtotal="average" baseField="0" baseItem="9"/>
-    <dataField name="Average of Nov-21" fld="7" subtotal="average" baseField="0" baseItem="9"/>
-    <dataField name="Average of Dec-21" fld="8" subtotal="average" baseField="0" baseItem="9"/>
-    <dataField name="Average of Jan-22" fld="9" subtotal="average" baseField="0" baseItem="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="30">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D301182-943F-4094-B2D5-DFAEC7AC5145}" name="PivotTable23" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="I7:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="45">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{697FEEF8-58A4-49FC-B85D-F95A7017E585}" name="PivotTable15" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="D20:E24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="46">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="8">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{528ECF75-ACA4-46A4-897C-111FDCEB62A3}" name="PivotTable19" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="I24:I25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="16">
-    <pivotField dataField="1" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="17">
         <item x="2"/>
         <item x="1"/>
@@ -11584,17 +11074,17 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
@@ -11604,20 +11094,14 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of MOVIE" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
   <formats count="2">
-    <format dxfId="48">
+    <format dxfId="5">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11633,323 +11117,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC589196-83AD-4C3D-95F0-67933422AD1E}" name="PivotTable12" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A7:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="7">
-    <dataField name="Sum of Jul-21" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Aug-21" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sep-21" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Oct-21" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Nov-21" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Dec-21" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Jan-22" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="49">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95E610B8-64BB-4D47-AA4D-B470B1DD2907}" name="PivotTable21" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="D31" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <formats count="2">
-    <format dxfId="27">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C9363E0-4A37-49AE-BF34-5CCA21A56E21}" name="PivotTable13" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A20:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="31">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5F05108-DA0A-48F8-A359-31DB24E2FED5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="P33:U49" firstHeaderRow="0" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="16">
@@ -12033,77 +11201,77 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -12231,15 +11399,15 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
     <dataField name="Average of MoM" fld="14" subtotal="average" baseField="1" baseItem="5"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="34">
+    <format dxfId="18">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12248,7 +11416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12344,97 +11512,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6FDEBAE-5C5D-48FD-BFD8-F12ECFAB0B02}" name="PivotTable20" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="K24" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="17">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <formats count="2">
-    <format dxfId="36">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EDEAA06-B7CF-449F-8642-9723524B7FC6}" name="PivotTable17" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="I20:I21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC589196-83AD-4C3D-95F0-67933422AD1E}" name="PivotTable12" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A7:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -12457,17 +11537,17 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
@@ -12477,138 +11557,51 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Average" fld="11" subtotal="average" baseField="0" baseItem="9"/>
+  <dataFields count="7">
+    <dataField name="Sum of Jul-21" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Aug-21" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sep-21" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Oct-21" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Nov-21" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Dec-21" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Jan-22" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="37">
+    <format dxfId="19">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4420C0C-5A2C-4FC8-A4AE-3A2B3395B9FB}" name="PivotTable16" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G20:G21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="38">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="5" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12630,81 +11623,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FD45CD9-EDDE-4FE6-A0BF-972BB637FF01}" name="PivotTable18" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="G24:G25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of MoM" fld="14" subtotal="average" baseField="0" baseItem="9" numFmtId="10"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="40">
-      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C66FE3F3-B15C-4D0E-9439-42DCD36F934D}" name="PivotTable25" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="P12:R29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -12776,17 +11695,17 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
@@ -12864,14 +11783,14 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="43">
+    <format dxfId="22">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12880,7 +11799,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12958,7 +11877,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B804F494-E897-4A24-9D11-6C0844CC4236}" name="PivotTable24" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="M7:N11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -13001,17 +11920,17 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
@@ -13045,7 +11964,7 @@
     <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="44">
+    <format dxfId="23">
       <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
   </formats>
@@ -13087,6 +12006,1000 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95E610B8-64BB-4D47-AA4D-B470B1DD2907}" name="PivotTable21" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="D31" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D301182-943F-4094-B2D5-DFAEC7AC5145}" name="PivotTable23" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="I7:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Average" fld="11" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EDEAA06-B7CF-449F-8642-9723524B7FC6}" name="PivotTable17" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="I20:I21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Average" fld="11" subtotal="average" baseField="0" baseItem="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{697FEEF8-58A4-49FC-B85D-F95A7017E585}" name="PivotTable15" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="D20:E24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="8">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="8">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4420C0C-5A2C-4FC8-A4AE-3A2B3395B9FB}" name="PivotTable16" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G20:G21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7CF7399-3C6E-4FAB-ADF9-7114B9DA5C35}" name="PivotTable22" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="E7:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="Average of Jul-21" fld="3" subtotal="average" baseField="0" baseItem="9"/>
+    <dataField name="Average of Aug-21" fld="4" subtotal="average" baseField="0" baseItem="9"/>
+    <dataField name="Average of Sep-21" fld="5" subtotal="average" baseField="0" baseItem="9"/>
+    <dataField name="Average of Oct-21" fld="6" subtotal="average" baseField="0" baseItem="9"/>
+    <dataField name="Average of Nov-21" fld="7" subtotal="average" baseField="0" baseItem="9"/>
+    <dataField name="Average of Dec-21" fld="8" subtotal="average" baseField="0" baseItem="9"/>
+    <dataField name="Average of Jan-22" fld="9" subtotal="average" baseField="0" baseItem="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C9363E0-4A37-49AE-BF34-5CCA21A56E21}" name="PivotTable13" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A20:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Totals" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="11">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{528ECF75-ACA4-46A4-897C-111FDCEB62A3}" name="PivotTable19" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="I24:I25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of MOVIE" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="13">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FD45CD9-EDDE-4FE6-A0BF-972BB637FF01}" name="PivotTable18" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="G24:G25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of MoM" fld="14" subtotal="average" baseField="0" baseItem="9" numFmtId="10"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="15">
+      <pivotArea dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13497,10 +13410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4F75E6-FCA5-4FE8-B964-2CD11B93EC1B}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13510,922 +13423,926 @@
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5546875" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:16" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
-    <row r="2" spans="1:16" s="29" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+    <row r="2" spans="1:16" s="27" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
-    <row r="3" spans="1:16" s="29" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+    <row r="3" spans="1:16" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>44378</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>44409</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>44440</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>44470</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>44501</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>44531</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>44562</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>908851</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>953741</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>924366</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>907576</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>945771</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1928656</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>1023031</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>7591992</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>1084570.2857142857</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>907576</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>1928656</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="22">
         <v>-0.46956274213753002</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>544951</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>576636</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>564851</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>516416</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>558496</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1139066</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>606996</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>4507412</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>643916</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>516416</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>1139066</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <v>-0.46711077321243899</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>259311</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>263611</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>263801</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>279256</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>283426</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>590476</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>300861</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>2240742</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>320106</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>259311</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>590476</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <v>-0.49047717434747562</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>81641</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>86581</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>78091</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>92076</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>94381</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>187256</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>111241</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>731267</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>104466.71428571429</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>78091</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>187256</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="22">
         <v>-0.40594159866706536</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>14506</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>18876</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>8641</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>5236</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>5066</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>2286</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>1316</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>55927</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>7989.5714285714284</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>1316</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>18876</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <v>-0.42432195975503062</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>5746</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>5816</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>5836</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>5671</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>5841</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>10066</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>5821</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>44797</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>6399.5714285714284</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>5671</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>10066</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="22">
         <v>-0.42171666997814428</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>7586</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>7081</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>8006</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>12296</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1246</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1246</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>1246</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>38707</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>5529.5714285714284</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>1246</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>12296</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="22">
         <v>0.67</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2251</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2286</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>2286</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>3756</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>4451</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>4956</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>2671</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>22657</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>3236.7142857142858</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>2251</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>4956</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="22">
         <v>-0.46105730427764324</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1506</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1501</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1501</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1516</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1501</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>1746</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>1496</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>10767</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>1538.1428571428571</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>1496</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>1746</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="22">
         <v>-0.14318442153493705</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1296</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1296</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1296</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1291</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1296</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>1346</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>1296</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>9117</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>1302.4285714285713</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>1291</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>1346</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="22">
         <v>-3.7147102526002951E-2</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1246</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1246</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1246</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1251</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1256</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>1396</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>1256</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>8897</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="16">
         <v>1271</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>1246</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="16">
         <v>1396</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <v>-0.10028653295128942</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1271</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1271</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1271</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1271</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1271</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1276</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>1246</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>8877</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>1268.1428571428571</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>1246</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>1276</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="22">
         <v>-2.3510971786833812E-2</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1246</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>1246</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>1246</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>1246</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1246</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>1246</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>1291</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>8767</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="16">
         <v>1252.4285714285713</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>1246</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="16">
         <v>1291</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="22">
         <v>0.16</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1246</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1246</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>1246</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>1246</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>1246</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1246</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>1246</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>8722</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="16">
         <v>1246</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>1246</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="16">
         <v>1246</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="22">
         <v>0.45</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1246</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>1246</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1246</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>1246</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>1246</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>1246</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>1246</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>8722</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="16">
         <v>1246</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>1246</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="16">
         <v>1246</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="22">
         <v>0</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>1246</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>1246</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>1246</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>1246</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>1246</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>1246</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>1246</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <v>8722</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="17">
         <v>1246</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="17">
         <v>1246</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="17">
         <v>1246</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <v>0</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:P20" xr:uid="{5E4F75E6-FCA5-4FE8-B964-2CD11B93EC1B}"/>
@@ -14503,151 +14420,151 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="I7" s="2" t="s">
+      <c r="F7" s="4"/>
+      <c r="I7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1835146</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>114696.625</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>1268.1428571428571</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>70274.246753246756</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1924926</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>120307.875</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1302.4285714285713</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>273365.46428571426</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1866176</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>116636</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>1917.9047619047622</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>320106</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1832596</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>114537.25</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>3591.2380952380954</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>136661.53571428574</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1908986</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>119311.625</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>108962.66666666667</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q12" t="s">
@@ -14658,356 +14575,356 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3874756</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>242172.25</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>217187.1904761905</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>1246</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>8722</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>2063506</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>128969.125</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>594518.5</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>1246</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>8722</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>136661.53571428571</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>1246</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>8722</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>1252.4285714285713</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>8767</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>1268.1428571428571</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <v>8877</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>1271</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>8897</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>1302.4285714285713</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>9117</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="4">
         <v>1538.1428571428571</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>10767</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>8877</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>7654233</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>15306092</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>136661.53571428568</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4">
         <v>3236.7142857142858</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <v>22657</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>9117</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>5411117</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <v>5529.5714285714284</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>38707</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>40276</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>2240742</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <v>6399.5714285714284</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <v>44797</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>75416</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>15306092</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="4">
         <v>7989.5714285714284</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <v>55927</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>2288216</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="34">
         <v>-0.13526982819839944</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25">
         <v>16</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="4">
         <v>104466.71428571429</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="4">
         <v>731267</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>4560931</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="4">
         <v>320106</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="4">
         <v>2240742</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>8323259</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <v>643916</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <v>4507412</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>15306092</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="4">
         <v>1084570.2857142857</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="4">
         <v>7591992</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <v>136661.53571428571</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <v>15306092</v>
       </c>
     </row>
     <row r="33" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P33" s="2" t="s">
+      <c r="P33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S33" t="s">
@@ -15030,13 +14947,13 @@
       <c r="R34" t="s">
         <v>15</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="4">
         <v>1246</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="4">
         <v>8722</v>
       </c>
-      <c r="U34" s="30">
+      <c r="U34">
         <v>0.45</v>
       </c>
     </row>
@@ -15050,13 +14967,13 @@
       <c r="R35" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="4">
         <v>1246</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="4">
         <v>8722</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35">
         <v>0</v>
       </c>
     </row>
@@ -15070,13 +14987,13 @@
       <c r="R36" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="4">
         <v>1246</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="4">
         <v>8722</v>
       </c>
-      <c r="U36" s="30">
+      <c r="U36">
         <v>0</v>
       </c>
     </row>
@@ -15090,13 +15007,13 @@
       <c r="R37" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="4">
         <v>1252.4285714285713</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="4">
         <v>8767</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37">
         <v>0.16</v>
       </c>
     </row>
@@ -15110,13 +15027,13 @@
       <c r="R38" t="s">
         <v>15</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="4">
         <v>1268.1428571428571</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="4">
         <v>8877</v>
       </c>
-      <c r="U38" s="30">
+      <c r="U38">
         <v>-2.3510971786833812E-2</v>
       </c>
     </row>
@@ -15130,13 +15047,13 @@
       <c r="R39" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="4">
         <v>1271</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="4">
         <v>8897</v>
       </c>
-      <c r="U39" s="30">
+      <c r="U39">
         <v>-0.10028653295128942</v>
       </c>
     </row>
@@ -15150,13 +15067,13 @@
       <c r="R40" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="4">
         <v>1302.4285714285713</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="4">
         <v>9117</v>
       </c>
-      <c r="U40" s="30">
+      <c r="U40">
         <v>-3.7147102526002951E-2</v>
       </c>
     </row>
@@ -15170,13 +15087,13 @@
       <c r="R41" t="s">
         <v>15</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="4">
         <v>1538.1428571428571</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="4">
         <v>10767</v>
       </c>
-      <c r="U41" s="30">
+      <c r="U41">
         <v>-0.14318442153493705</v>
       </c>
     </row>
@@ -15190,13 +15107,13 @@
       <c r="R42" t="s">
         <v>15</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="4">
         <v>3236.7142857142858</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="4">
         <v>22657</v>
       </c>
-      <c r="U42" s="30">
+      <c r="U42">
         <v>-0.46105730427764324</v>
       </c>
     </row>
@@ -15210,13 +15127,13 @@
       <c r="R43" t="s">
         <v>15</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="4">
         <v>5529.5714285714284</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="4">
         <v>38707</v>
       </c>
-      <c r="U43" s="30">
+      <c r="U43">
         <v>0.67</v>
       </c>
     </row>
@@ -15230,13 +15147,13 @@
       <c r="R44" t="s">
         <v>11</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="4">
         <v>6399.5714285714284</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="4">
         <v>44797</v>
       </c>
-      <c r="U44" s="30">
+      <c r="U44">
         <v>-0.42171666997814428</v>
       </c>
     </row>
@@ -15250,13 +15167,13 @@
       <c r="R45" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="4">
         <v>7989.5714285714284</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="4">
         <v>55927</v>
       </c>
-      <c r="U45" s="30">
+      <c r="U45">
         <v>-0.42432195975503062</v>
       </c>
     </row>
@@ -15270,13 +15187,13 @@
       <c r="R46" t="s">
         <v>15</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="4">
         <v>104466.71428571429</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="4">
         <v>731267</v>
       </c>
-      <c r="U46" s="30">
+      <c r="U46">
         <v>-0.40594159866706536</v>
       </c>
     </row>
@@ -15290,13 +15207,13 @@
       <c r="R47" t="s">
         <v>18</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="4">
         <v>320106</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="4">
         <v>2240742</v>
       </c>
-      <c r="U47" s="30">
+      <c r="U47">
         <v>-0.49047717434747562</v>
       </c>
     </row>
@@ -15310,13 +15227,13 @@
       <c r="R48" t="s">
         <v>15</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48" s="4">
         <v>643916</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48" s="4">
         <v>4507412</v>
       </c>
-      <c r="U48" s="30">
+      <c r="U48">
         <v>-0.46711077321243899</v>
       </c>
     </row>
@@ -15330,13 +15247,13 @@
       <c r="R49" t="s">
         <v>11</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49" s="4">
         <v>1084570.2857142857</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49" s="4">
         <v>7591992</v>
       </c>
-      <c r="U49" s="30">
+      <c r="U49">
         <v>-0.46956274213753002</v>
       </c>
     </row>
@@ -15350,7 +15267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFBEA34-4B81-4356-8FB1-911C0F056666}">
   <dimension ref="C3:X99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -15361,374 +15278,370 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
     </row>
     <row r="4" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
     </row>
     <row r="5" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
     </row>
     <row r="7" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
     </row>
     <row r="8" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
     </row>
     <row r="9" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="K10" s="87" t="s">
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="K10" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
-      <c r="O10" s="90" t="s">
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="O10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
-      <c r="S10" s="93" t="s">
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="S10" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="94"/>
-      <c r="U10" s="95"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="32"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29"/>
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="G11" s="53">
+      <c r="G11" s="68">
         <f>GETPIVOTDATA("Totals",'Pivot Charts'!$G$20)</f>
         <v>15306092</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="K11" s="53">
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="K11" s="68">
         <f>GETPIVOTDATA("Average",'Pivot Charts'!$I$20)</f>
         <v>136661.53571428568</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="O11" s="62">
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="O11" s="77">
         <f>GETPIVOTDATA("MoM",'Pivot Charts'!$G$24)</f>
         <v>-0.13526982819839944</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
-      <c r="S11" s="71">
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
+      <c r="S11" s="86">
         <f>GETPIVOTDATA("MOVIE",'Pivot Charts'!$I$24)</f>
         <v>16</v>
       </c>
-      <c r="T11" s="72"/>
-      <c r="U11" s="73"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="31"/>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="91"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="31"/>
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="82"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="91"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="31"/>
     </row>
     <row r="14" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="85"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="94"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="41"/>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="48" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G48" s="52" t="s">
+      <c r="G48" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
     </row>
     <row r="49" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
     </row>
     <row r="68" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G68" s="52" t="s">
+      <c r="G68" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="55"/>
     </row>
     <row r="69" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="55"/>
+      <c r="X69" s="55"/>
     </row>
     <row r="72" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G72" s="96" t="s">
+      <c r="G72" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96" t="s">
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96" t="s">
+      <c r="L72" s="50"/>
+      <c r="M72" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="N72" s="96"/>
-      <c r="O72" s="96" t="s">
+      <c r="N72" s="50"/>
+      <c r="O72" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="P72" s="96"/>
-      <c r="Q72" s="96" t="s">
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R72" s="96"/>
-      <c r="S72" s="49" t="s">
+      <c r="R72" s="50"/>
+      <c r="S72" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
     </row>
     <row r="73" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G73" t="str">
@@ -15743,11 +15656,11 @@
         <f>IF('Pivot Charts'!R34=0,"",'Pivot Charts'!R34)</f>
         <v>Adventure</v>
       </c>
-      <c r="O73" s="97">
+      <c r="O73" s="49">
         <f>IF('Pivot Charts'!S34=0,"",'Pivot Charts'!S34)</f>
         <v>1246</v>
       </c>
-      <c r="P73" s="97"/>
+      <c r="P73" s="49"/>
       <c r="Q73">
         <f>IF('Pivot Charts'!T34=0,"",'Pivot Charts'!T34)</f>
         <v>8722</v>
@@ -15778,11 +15691,11 @@
         <f>IF('Pivot Charts'!R35=0,"",'Pivot Charts'!R35)</f>
         <v>Action</v>
       </c>
-      <c r="O74" s="97">
+      <c r="O74" s="49">
         <f>IF('Pivot Charts'!S35=0,"",'Pivot Charts'!S35)</f>
         <v>1246</v>
       </c>
-      <c r="P74" s="97"/>
+      <c r="P74" s="49"/>
       <c r="Q74">
         <f>IF('Pivot Charts'!T35=0,"",'Pivot Charts'!T35)</f>
         <v>8722</v>
@@ -15813,11 +15726,11 @@
         <f>IF('Pivot Charts'!R36=0,"",'Pivot Charts'!R36)</f>
         <v>Action</v>
       </c>
-      <c r="O75" s="97">
+      <c r="O75" s="49">
         <f>IF('Pivot Charts'!S36=0,"",'Pivot Charts'!S36)</f>
         <v>1246</v>
       </c>
-      <c r="P75" s="97"/>
+      <c r="P75" s="49"/>
       <c r="Q75">
         <f>IF('Pivot Charts'!T36=0,"",'Pivot Charts'!T36)</f>
         <v>8722</v>
@@ -15848,11 +15761,11 @@
         <f>IF('Pivot Charts'!R37=0,"",'Pivot Charts'!R37)</f>
         <v>Adventure</v>
       </c>
-      <c r="O76" s="97">
+      <c r="O76" s="49">
         <f>IF('Pivot Charts'!S37=0,"",'Pivot Charts'!S37)</f>
         <v>1252.4285714285713</v>
       </c>
-      <c r="P76" s="97"/>
+      <c r="P76" s="49"/>
       <c r="Q76">
         <f>IF('Pivot Charts'!T37=0,"",'Pivot Charts'!T37)</f>
         <v>8767</v>
@@ -15883,11 +15796,11 @@
         <f>IF('Pivot Charts'!R38=0,"",'Pivot Charts'!R38)</f>
         <v>Adventure</v>
       </c>
-      <c r="O77" s="97">
+      <c r="O77" s="49">
         <f>IF('Pivot Charts'!S38=0,"",'Pivot Charts'!S38)</f>
         <v>1268.1428571428571</v>
       </c>
-      <c r="P77" s="97"/>
+      <c r="P77" s="49"/>
       <c r="Q77">
         <f>IF('Pivot Charts'!T38=0,"",'Pivot Charts'!T38)</f>
         <v>8877</v>
@@ -15918,11 +15831,11 @@
         <f>IF('Pivot Charts'!R39=0,"",'Pivot Charts'!R39)</f>
         <v>Adventure</v>
       </c>
-      <c r="O78" s="97">
+      <c r="O78" s="49">
         <f>IF('Pivot Charts'!S39=0,"",'Pivot Charts'!S39)</f>
         <v>1271</v>
       </c>
-      <c r="P78" s="97"/>
+      <c r="P78" s="49"/>
       <c r="Q78">
         <f>IF('Pivot Charts'!T39=0,"",'Pivot Charts'!T39)</f>
         <v>8897</v>
@@ -15953,11 +15866,11 @@
         <f>IF('Pivot Charts'!R40=0,"",'Pivot Charts'!R40)</f>
         <v>Adventure</v>
       </c>
-      <c r="O79" s="97">
+      <c r="O79" s="49">
         <f>IF('Pivot Charts'!S40=0,"",'Pivot Charts'!S40)</f>
         <v>1302.4285714285713</v>
       </c>
-      <c r="P79" s="97"/>
+      <c r="P79" s="49"/>
       <c r="Q79">
         <f>IF('Pivot Charts'!T40=0,"",'Pivot Charts'!T40)</f>
         <v>9117</v>
@@ -15988,11 +15901,11 @@
         <f>IF('Pivot Charts'!R41=0,"",'Pivot Charts'!R41)</f>
         <v>Adventure</v>
       </c>
-      <c r="O80" s="97">
+      <c r="O80" s="49">
         <f>IF('Pivot Charts'!S41=0,"",'Pivot Charts'!S41)</f>
         <v>1538.1428571428571</v>
       </c>
-      <c r="P80" s="97"/>
+      <c r="P80" s="49"/>
       <c r="Q80">
         <f>IF('Pivot Charts'!T41=0,"",'Pivot Charts'!T41)</f>
         <v>10767</v>
@@ -16023,11 +15936,11 @@
         <f>IF('Pivot Charts'!R42=0,"",'Pivot Charts'!R42)</f>
         <v>Adventure</v>
       </c>
-      <c r="O81" s="97">
+      <c r="O81" s="49">
         <f>IF('Pivot Charts'!S42=0,"",'Pivot Charts'!S42)</f>
         <v>3236.7142857142858</v>
       </c>
-      <c r="P81" s="97"/>
+      <c r="P81" s="49"/>
       <c r="Q81">
         <f>IF('Pivot Charts'!T42=0,"",'Pivot Charts'!T42)</f>
         <v>22657</v>
@@ -16058,11 +15971,11 @@
         <f>IF('Pivot Charts'!R43=0,"",'Pivot Charts'!R43)</f>
         <v>Adventure</v>
       </c>
-      <c r="O82" s="97">
+      <c r="O82" s="49">
         <f>IF('Pivot Charts'!S43=0,"",'Pivot Charts'!S43)</f>
         <v>5529.5714285714284</v>
       </c>
-      <c r="P82" s="97"/>
+      <c r="P82" s="49"/>
       <c r="Q82">
         <f>IF('Pivot Charts'!T43=0,"",'Pivot Charts'!T43)</f>
         <v>38707</v>
@@ -16093,11 +16006,11 @@
         <f>IF('Pivot Charts'!R44=0,"",'Pivot Charts'!R44)</f>
         <v>Action</v>
       </c>
-      <c r="O83" s="97">
+      <c r="O83" s="49">
         <f>IF('Pivot Charts'!S44=0,"",'Pivot Charts'!S44)</f>
         <v>6399.5714285714284</v>
       </c>
-      <c r="P83" s="97"/>
+      <c r="P83" s="49"/>
       <c r="Q83">
         <f>IF('Pivot Charts'!T44=0,"",'Pivot Charts'!T44)</f>
         <v>44797</v>
@@ -16128,11 +16041,11 @@
         <f>IF('Pivot Charts'!R45=0,"",'Pivot Charts'!R45)</f>
         <v>Adventure</v>
       </c>
-      <c r="O84" s="97">
+      <c r="O84" s="49">
         <f>IF('Pivot Charts'!S45=0,"",'Pivot Charts'!S45)</f>
         <v>7989.5714285714284</v>
       </c>
-      <c r="P84" s="97"/>
+      <c r="P84" s="49"/>
       <c r="Q84">
         <f>IF('Pivot Charts'!T45=0,"",'Pivot Charts'!T45)</f>
         <v>55927</v>
@@ -16163,11 +16076,11 @@
         <f>IF('Pivot Charts'!R46=0,"",'Pivot Charts'!R46)</f>
         <v>Adventure</v>
       </c>
-      <c r="O85" s="97">
+      <c r="O85" s="49">
         <f>IF('Pivot Charts'!S46=0,"",'Pivot Charts'!S46)</f>
         <v>104466.71428571429</v>
       </c>
-      <c r="P85" s="97"/>
+      <c r="P85" s="49"/>
       <c r="Q85">
         <f>IF('Pivot Charts'!T46=0,"",'Pivot Charts'!T46)</f>
         <v>731267</v>
@@ -16198,11 +16111,11 @@
         <f>IF('Pivot Charts'!R47=0,"",'Pivot Charts'!R47)</f>
         <v>Drama</v>
       </c>
-      <c r="O86" s="97">
+      <c r="O86" s="49">
         <f>IF('Pivot Charts'!S47=0,"",'Pivot Charts'!S47)</f>
         <v>320106</v>
       </c>
-      <c r="P86" s="97"/>
+      <c r="P86" s="49"/>
       <c r="Q86">
         <f>IF('Pivot Charts'!T47=0,"",'Pivot Charts'!T47)</f>
         <v>2240742</v>
@@ -16233,11 +16146,11 @@
         <f>IF('Pivot Charts'!R48=0,"",'Pivot Charts'!R48)</f>
         <v>Adventure</v>
       </c>
-      <c r="O87" s="97">
+      <c r="O87" s="49">
         <f>IF('Pivot Charts'!S48=0,"",'Pivot Charts'!S48)</f>
         <v>643916</v>
       </c>
-      <c r="P87" s="97"/>
+      <c r="P87" s="49"/>
       <c r="Q87">
         <f>IF('Pivot Charts'!T48=0,"",'Pivot Charts'!T48)</f>
         <v>4507412</v>
@@ -16268,11 +16181,11 @@
         <f>IF('Pivot Charts'!R49=0,"",'Pivot Charts'!R49)</f>
         <v>Action</v>
       </c>
-      <c r="O88" s="97">
+      <c r="O88" s="49">
         <f>IF('Pivot Charts'!S49=0,"",'Pivot Charts'!S49)</f>
         <v>1084570.2857142857</v>
       </c>
-      <c r="P88" s="97"/>
+      <c r="P88" s="49"/>
       <c r="Q88">
         <f>IF('Pivot Charts'!T49=0,"",'Pivot Charts'!T49)</f>
         <v>7591992</v>
@@ -16672,6 +16585,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G68:X69"/>
+    <mergeCell ref="G11:I14"/>
+    <mergeCell ref="K11:M14"/>
+    <mergeCell ref="O11:Q14"/>
+    <mergeCell ref="S11:U14"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C3:X5"/>
+    <mergeCell ref="G7:X8"/>
+    <mergeCell ref="G48:X49"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O77:P77"/>
     <mergeCell ref="O88:P88"/>
     <mergeCell ref="Q72:R72"/>
     <mergeCell ref="O73:P73"/>
@@ -16688,30 +16619,12 @@
     <mergeCell ref="O85:P85"/>
     <mergeCell ref="O86:P86"/>
     <mergeCell ref="O87:P87"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C3:X5"/>
-    <mergeCell ref="G7:X8"/>
-    <mergeCell ref="G48:X49"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="G68:X69"/>
-    <mergeCell ref="G11:I14"/>
-    <mergeCell ref="K11:M14"/>
-    <mergeCell ref="O11:Q14"/>
-    <mergeCell ref="S11:U14"/>
   </mergeCells>
   <conditionalFormatting sqref="O11:Q14">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
